--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.523597</v>
+        <v>21.33926</v>
       </c>
       <c r="N2">
-        <v>40.570791</v>
+        <v>64.01778</v>
       </c>
       <c r="O2">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="P2">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="Q2">
-        <v>141.1085018399367</v>
+        <v>222.6590313932666</v>
       </c>
       <c r="R2">
-        <v>1269.97651655943</v>
+        <v>2003.9312825394</v>
       </c>
       <c r="S2">
-        <v>0.3354691574714114</v>
+        <v>0.4271826028399997</v>
       </c>
       <c r="T2">
-        <v>0.3354691574714114</v>
+        <v>0.4271826028399998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>34.790704</v>
       </c>
       <c r="O3">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="P3">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="Q3">
         <v>121.0048904246578</v>
@@ -635,10 +635,10 @@
         <v>1089.04401382192</v>
       </c>
       <c r="S3">
-        <v>0.2876751443844726</v>
+        <v>0.2321539967389683</v>
       </c>
       <c r="T3">
-        <v>0.2876751443844726</v>
+        <v>0.2321539967389683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.452519666666667</v>
+        <v>10.59425366666667</v>
       </c>
       <c r="N4">
-        <v>28.357559</v>
+        <v>31.782761</v>
       </c>
       <c r="O4">
-        <v>0.2414570551459008</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="P4">
-        <v>0.2414570551459009</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="Q4">
-        <v>98.62989031511889</v>
+        <v>110.5430206930589</v>
       </c>
       <c r="R4">
-        <v>887.66901283607</v>
+        <v>994.8871862375299</v>
       </c>
       <c r="S4">
-        <v>0.2344811671449994</v>
+        <v>0.2120823710135158</v>
       </c>
       <c r="T4">
-        <v>0.2344811671449995</v>
+        <v>0.2120823710135158</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.574811666666666</v>
+        <v>4.979874333333333</v>
       </c>
       <c r="N5">
-        <v>13.724435</v>
+        <v>14.939623</v>
       </c>
       <c r="O5">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="P5">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="Q5">
-        <v>47.73469813417221</v>
+        <v>51.96122056342111</v>
       </c>
       <c r="R5">
-        <v>429.6122832075499</v>
+        <v>467.6509850707899</v>
       </c>
       <c r="S5">
-        <v>0.1134837288782747</v>
+        <v>0.0996902272866745</v>
       </c>
       <c r="T5">
-        <v>0.1134837288782748</v>
+        <v>0.09969022728667451</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.523597</v>
+        <v>21.33926</v>
       </c>
       <c r="N6">
-        <v>40.570791</v>
+        <v>64.01778</v>
       </c>
       <c r="O6">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="P6">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="Q6">
-        <v>4.198022027934</v>
+        <v>6.62417576772</v>
       </c>
       <c r="R6">
-        <v>37.78219825140599</v>
+        <v>59.61758190947999</v>
       </c>
       <c r="S6">
-        <v>0.00998031227313948</v>
+        <v>0.01270881593446946</v>
       </c>
       <c r="T6">
-        <v>0.009980312273139481</v>
+        <v>0.01270881593446946</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,10 +871,10 @@
         <v>34.790704</v>
       </c>
       <c r="O7">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="P7">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="Q7">
         <v>3.599933305696</v>
@@ -883,10 +883,10 @@
         <v>32.39939975126399</v>
       </c>
       <c r="S7">
-        <v>0.008558425447568</v>
+        <v>0.006906653954051677</v>
       </c>
       <c r="T7">
-        <v>0.008558425447568001</v>
+        <v>0.006906653954051678</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.452519666666667</v>
+        <v>10.59425366666667</v>
       </c>
       <c r="N8">
-        <v>28.357559</v>
+        <v>31.782761</v>
       </c>
       <c r="O8">
-        <v>0.2414570551459008</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="P8">
-        <v>0.2414570551459009</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="Q8">
-        <v>2.934270059966</v>
+        <v>3.288689411714</v>
       </c>
       <c r="R8">
-        <v>26.408430539694</v>
+        <v>29.598204705426</v>
       </c>
       <c r="S8">
-        <v>0.00697588800090136</v>
+        <v>0.006309516816081946</v>
       </c>
       <c r="T8">
-        <v>0.006975888000901363</v>
+        <v>0.006309516816081947</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.574811666666666</v>
+        <v>4.979874333333333</v>
       </c>
       <c r="N9">
-        <v>13.724435</v>
+        <v>14.939623</v>
       </c>
       <c r="O9">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="P9">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="Q9">
-        <v>1.42012218719</v>
+        <v>1.545862550302</v>
       </c>
       <c r="R9">
-        <v>12.78109968471</v>
+        <v>13.912762952718</v>
       </c>
       <c r="S9">
-        <v>0.003376176399232763</v>
+        <v>0.002965815416238526</v>
       </c>
       <c r="T9">
-        <v>0.003376176399232765</v>
+        <v>0.002965815416238527</v>
       </c>
     </row>
   </sheetData>
